--- a/medicine/Mort/Cimetière_nouveau_d'Asnières-sur-Seine/Cimetière_nouveau_d'Asnières-sur-Seine.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_d'Asnières-sur-Seine/Cimetière_nouveau_d'Asnières-sur-Seine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Asni%C3%A8res-sur-Seine</t>
+          <t>Cimetière_nouveau_d'Asnières-sur-Seine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière nouveau d'Asnières-sur-Seine est un cimetière communal se trouvant avenue de la Redoute à Asnières-sur-Seine, dans les Hauts-de-Seine, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Asni%C3%A8res-sur-Seine</t>
+          <t>Cimetière_nouveau_d'Asnières-sur-Seine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière constitue une annexe du cimetière de Bois-Colombes auquel il est contigü. Tous deux ont été construits à l'emplacement de l'ancienne redoute de Gennevilliers, une des fortifications de Paris aux XIXe et XXe siècles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière constitue une annexe du cimetière de Bois-Colombes auquel il est contigü. Tous deux ont été construits à l'emplacement de l'ancienne redoute de Gennevilliers, une des fortifications de Paris aux XIXe et XXe siècles.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_d%27Asni%C3%A8res-sur-Seine</t>
+          <t>Cimetière_nouveau_d'Asnières-sur-Seine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>André Ménétrier (Suresnes 23 décembre 1922-Asnières-sur-Seine 24 juin 2015), ancien Secrétaire général du Secours populaire[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>André Ménétrier (Suresnes 23 décembre 1922-Asnières-sur-Seine 24 juin 2015), ancien Secrétaire général du Secours populaire.</t>
         </is>
       </c>
     </row>
